--- a/data/ReadData.xlsx
+++ b/data/ReadData.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamun\Selenium\Selenium\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073F4F03-0F60-4442-82AC-EFD6B0A2A3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{284FCE7C-B13E-43FF-92EC-91E73A98CB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MM" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,28 +495,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -530,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBC7DB3-BF07-46EA-B33E-8C4BB8A457E7}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
